--- a/biology/Écologie/Interaction_biologique/Interaction_biologique.xlsx
+++ b/biology/Écologie/Interaction_biologique/Interaction_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une interaction biologique, appelée aussi interaction biotique ou interaction écologique, désigne un processus impliquant des échanges ou relations réciproques entre plusieurs individus ou espèces dans un écosystème (relations interspécifiques), ou entre deux ou plusieurs individus d'une même population (relations intraspécifiques).
 Ces interactions, bénéfiques, neutres ou néfastes, instantanées ou durables, obligatoires (strictes), facultatives, opportunistes ou accidentelles selon leur niveau de spécificité, peuvent engendrer des coévolutions, induites directement (par exemple dans une relation prédateur-proie) ou indirectement (par exemple l'accès à une ressource commune) par ces échanges. On parlera alors d’interactions directes ou indirectes.
-Il existe toute une gradation de relations, rendant les individus plus ou moins interdépendants, en fonction du degré d'association des organismes impliqués, de la durée de ces interactions et de leur caractère bénéfique ou nuisible. Les principales sont[1] :
+Il existe toute une gradation de relations, rendant les individus plus ou moins interdépendants, en fonction du degré d'association des organismes impliqués, de la durée de ces interactions et de leur caractère bénéfique ou nuisible. Les principales sont :
 symbiose, interaction durable indirecte à directe, impliquant tout ou partie du cycle de vie des deux organismes, quels que soient les échanges entre ceux-ci ;
 symbiose mutualiste : interaction directe de nature mutuellement bénéfique, dont le caractère obligatoire peut être soit unilatéral (ex : corail tropical et ses zooxanthelles) soit bilatéral (ex : plantes nectarifères entomogames et insectes nectarivores pollinisateurs associés), qu'entretiennent des organismes d'espèces différentes qui vivent en contact direct les uns avec les autres ;
 mutualisme : interaction indirecte à directe de nature mutuellement profitable entre organismes d'espèces différentes (cas particulier de la coopération, terme désignant des interactions à bénéfices réciproques entre individus d’espèce identique ou non), à caractère facultatif (protocoopération) ou obligatoire ;
@@ -494,7 +506,7 @@
 compétition : interaction indirecte à parfois directe de nature antagoniste, concernant une à plusieurs ressource (s) critique(s) pour les espèces concernées (qui occupent des niches écologiques de grande similitude), induisant une concurrence ;
 parasitisme : interaction directe durable, de nature antagoniste unilatéralement nuisible à détrimentielle, entre une espèce dénommée parasite et une à plusieurs espèces dénommée(s) hôte(s), duquel ou desquels l'espèce "nuisible" dépendra de façon unilatéralement obligatoire au plan trophique et vital pour tout ou partie de sa vie, le parasitisme n'entraînant pas forcément la mort de l'hôte (parasitisme biotrophe qui peut devenir nécrotrophe ; parasitoïdes, parasites de parasites qui se développent aux dépens d'un hôte dont ils entraînent obligatoirement la mort).
 prédation : interaction directe instantanée, de nature antagoniste unilatéralement nuisible, entre une espèce dénommée prédateur et une à plusieurs espèces dénommée(s) proies, interaction entraînant la mort de cette dernière.
-Le monde vivant peut être décrit comme un immense réseau d'interactions entre organismes. Les effets négatifs tendent à être quantitativement faibles lorsque les populations en interaction ont une histoire évolutive commune dans un écosystème relativement stable. En d'autres termes, les interactions sont le plus souvent à bénéfices réciproques car la sélection naturelle exerce une forte pression en faveur des adaptations qui permettent de réduire l'impact des interactions néfastes ou les éliminer car leur maintien entraînerait l'extinction de ces populations[2].
+Le monde vivant peut être décrit comme un immense réseau d'interactions entre organismes. Les effets négatifs tendent à être quantitativement faibles lorsque les populations en interaction ont une histoire évolutive commune dans un écosystème relativement stable. En d'autres termes, les interactions sont le plus souvent à bénéfices réciproques car la sélection naturelle exerce une forte pression en faveur des adaptations qui permettent de réduire l'impact des interactions néfastes ou les éliminer car leur maintien entraînerait l'extinction de ces populations.
 </t>
         </is>
       </c>
@@ -523,9 +535,11 @@
           <t>Contexte scientifique, philosophique et politique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les notions d'interactions néfastes se développent dans la seconde moitié du XIXe siècle, dans le cadre du darwinisme social, théorie qui reflète les idées de l'époque victorienne au Royaume-Uni, au moment où s'opère la transition d'une économie agraire à une économie industrielle capitaliste, si bien que les concepts de survie du plus apte et de progrès entraîné par la compétition sont utilisés à la fin du XIXe siècle pour justifier un capitalisme sans frein[3],[4]. Les notions d'interactions bénéfiques apparaissent à la fin du XIXe siècle parmi des penseurs de sympathies socialistes[5] ou anarchistes[6]. Le développement de ces deux notions opposées le doit ainsi autant « à des irréductibilités de points de vue scientifiques qu’à des oppositions entre leurs prolongements philosophiques et sociétaux »[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les notions d'interactions néfastes se développent dans la seconde moitié du XIXe siècle, dans le cadre du darwinisme social, théorie qui reflète les idées de l'époque victorienne au Royaume-Uni, au moment où s'opère la transition d'une économie agraire à une économie industrielle capitaliste, si bien que les concepts de survie du plus apte et de progrès entraîné par la compétition sont utilisés à la fin du XIXe siècle pour justifier un capitalisme sans frein,. Les notions d'interactions bénéfiques apparaissent à la fin du XIXe siècle parmi des penseurs de sympathies socialistes ou anarchistes. Le développement de ces deux notions opposées le doit ainsi autant « à des irréductibilités de points de vue scientifiques qu’à des oppositions entre leurs prolongements philosophiques et sociétaux ».
 </t>
         </is>
       </c>
@@ -554,27 +568,12 @@
           <t>Principales interactions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce tableau ne présente que quelques combinaisons possibles d'interactions statiques alors que depuis les années 1980, les biologistes ont pris conscience du caractère dynamique des effets exercés par les espèces les unes sur les autres, les interactions présentant tout un gradient d'effets nets[8].
-« L’opposition entre, d’une part, plantes autotrophes et sessiles et, d’autre part, animaux hétérotrophes et mobiles est sans doute la clé des complémentarités écologiques et fonctionnelles qui ont grandement orienté leurs processus coévolutifs. Il en découle la foisonnante diversité de leurs interactions » qui sont sans doute les plus étudiées mais qui « n’illustrent qu’une petite partie des interdépendances du vivant (les plus importantes mettent en scène des microorganismes)[9] ».
-Symbiose
-Elle peut être vitale pour assumer certaines fonctions biologiques (ex : reproduction de guêpes braconides et leurs polydnavirus symbiotiques) ou ne concerner qu'un plan trophique et des échanges de bons procédés (ex : fourmis élevant des pucerons).
-Intérêts de la symbiose : elle permet le partage et l'échange de ressources et services dans une relation poussée au-delà du mutualisme opportuniste. De ce fait, les êtres vivants en association symbiotique peuvent éventuellement s'adapter à des contextes qui, autrement, seraient peu propices à une implantation ou un maintien in situ (ex : corail tropical associé à ses zooxanthelles).
-Limites de la symbiose : certaines symbioses peuvent tourner au parasitisme (ex : labre nettoyeur préférant le mucus aux parasites de son "client") ou devenir détrimentielles dans certaines conditions stressantes (ex : blanchissement des coraux). De même, la coévolution d'espèces en relation symbiotique peut déboucher sur l'inféodation complète d'un des organismes (ex : endosymbiose de l'ancêtre des mitochondries).
-Exemple : l’orchidée Ophrys sphegodes synthétise la phéromone femelle de l’abeille Andrena nigroaenea et conduit les mâles de l’insecte à des simulacres de copulation avec la fleur. Ce stratagème a pour but essentiel la transmission du pollen d’une orchidée à l’autre, c'est-à-dire sa reproduction, mais aussi son extension à de nouveaux territoires. Le bénéfice de la relation est réciproque pour les deux espèces et la disparition de l’une peut entraîner, à plus ou moins long terme, la mort de l’autre[réf. nécessaire].
-Mutualisme
-Intérêts du mutualisme : Le mutualisme améliore les conditions de vie des espèces s'y rapportant. De plus, le mutualisme ne génère aucune obligation d'association dans le cas de la protocoopération.
-Exemples : le héron pique bœuf qui trouve sa nourriture en débarrassant les grands mammifères (buffle, girafes...) de leurs parasites. Un autre exemple mutualiste est le regroupement en immenses troupeaux (plus ou moins mélangés) des grands herbivores de la savane africaine (gnous, zèbres, antilopes, etc)
-Parasitisme
-Intérêts du parasitisme : le parasite fait une économie de moyens et ressources aux dépens d'un hôte, parfois au détriment de ce dernier. S'il tire parti de son hôte sur un plan physiologique, le parasite peut même se permettre de perdre certaines fonctions redondantes avec l'hôte.
-Limites du parasitisme : lors de relations parasitaires durables au fil des générations, on assiste à une course aux armements entre l'espèce hôte et l'espèce parasite, pouvant conduire à une spécialisation aussi efficace que fragilisante. De même lorsqu'un parasite profite des fonctions vitales de son hôte, ces mêmes fonctions et organes tendent à régresser au fil des générations chez le parasite, conduisant à une dépendance à l'hôte de plus en plus importante. Il en resulte que la disparition d'une espèce hôte peut condamner l'espèce parasite.
-Exemple : les parasites sont innombrables; le ver Paragordius tricuspidatus, impressionnant parasite du grillon des bois commun Nemobius sylvestris qui pousse ce dernier à se jeter dans les cours d’eau avant de le quitter pour continuer sa propre évolution et se reproduire. Aussi la tique et les mammifères tels que le hérisson[réf. nécessaire].
-Commensalisme
-Exemples : certains poissons séjournent dans le tube digestif d’holothuries dans lequel ils peuvent aller et venir. Certains crabes sont commensaux des moules. Certaines sociétés de coléoptères cohabitent avec les fourmis. La blatte, le moineau, le pigeon, le goéland argenté et d'autres animaux sauvages (ou revenus à la vie sauvage, tels les chats harets) vivant auprès des humains sont des commensaux de ceux-ci.
-Phorésie
-Exemple : le poisson rémora, par exemple, est phoronte de la grande raie Manta.
-La phorésie fait partie du commensalisme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce tableau ne présente que quelques combinaisons possibles d'interactions statiques alors que depuis les années 1980, les biologistes ont pris conscience du caractère dynamique des effets exercés par les espèces les unes sur les autres, les interactions présentant tout un gradient d'effets nets.
+« L’opposition entre, d’une part, plantes autotrophes et sessiles et, d’autre part, animaux hétérotrophes et mobiles est sans doute la clé des complémentarités écologiques et fonctionnelles qui ont grandement orienté leurs processus coévolutifs. Il en découle la foisonnante diversité de leurs interactions » qui sont sans doute les plus étudiées mais qui « n’illustrent qu’une petite partie des interdépendances du vivant (les plus importantes mettent en scène des microorganismes) ».
 </t>
         </is>
       </c>
@@ -600,53 +599,355 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Principales interactions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Symbiose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle peut être vitale pour assumer certaines fonctions biologiques (ex : reproduction de guêpes braconides et leurs polydnavirus symbiotiques) ou ne concerner qu'un plan trophique et des échanges de bons procédés (ex : fourmis élevant des pucerons).
+Intérêts de la symbiose : elle permet le partage et l'échange de ressources et services dans une relation poussée au-delà du mutualisme opportuniste. De ce fait, les êtres vivants en association symbiotique peuvent éventuellement s'adapter à des contextes qui, autrement, seraient peu propices à une implantation ou un maintien in situ (ex : corail tropical associé à ses zooxanthelles).
+Limites de la symbiose : certaines symbioses peuvent tourner au parasitisme (ex : labre nettoyeur préférant le mucus aux parasites de son "client") ou devenir détrimentielles dans certaines conditions stressantes (ex : blanchissement des coraux). De même, la coévolution d'espèces en relation symbiotique peut déboucher sur l'inféodation complète d'un des organismes (ex : endosymbiose de l'ancêtre des mitochondries).
+Exemple : l’orchidée Ophrys sphegodes synthétise la phéromone femelle de l’abeille Andrena nigroaenea et conduit les mâles de l’insecte à des simulacres de copulation avec la fleur. Ce stratagème a pour but essentiel la transmission du pollen d’une orchidée à l’autre, c'est-à-dire sa reproduction, mais aussi son extension à de nouveaux territoires. Le bénéfice de la relation est réciproque pour les deux espèces et la disparition de l’une peut entraîner, à plus ou moins long terme, la mort de l’autre[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales interactions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mutualisme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Intérêts du mutualisme : Le mutualisme améliore les conditions de vie des espèces s'y rapportant. De plus, le mutualisme ne génère aucune obligation d'association dans le cas de la protocoopération.
+Exemples : le héron pique bœuf qui trouve sa nourriture en débarrassant les grands mammifères (buffle, girafes...) de leurs parasites. Un autre exemple mutualiste est le regroupement en immenses troupeaux (plus ou moins mélangés) des grands herbivores de la savane africaine (gnous, zèbres, antilopes, etc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales interactions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Parasitisme</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Intérêts du parasitisme : le parasite fait une économie de moyens et ressources aux dépens d'un hôte, parfois au détriment de ce dernier. S'il tire parti de son hôte sur un plan physiologique, le parasite peut même se permettre de perdre certaines fonctions redondantes avec l'hôte.
+Limites du parasitisme : lors de relations parasitaires durables au fil des générations, on assiste à une course aux armements entre l'espèce hôte et l'espèce parasite, pouvant conduire à une spécialisation aussi efficace que fragilisante. De même lorsqu'un parasite profite des fonctions vitales de son hôte, ces mêmes fonctions et organes tendent à régresser au fil des générations chez le parasite, conduisant à une dépendance à l'hôte de plus en plus importante. Il en resulte que la disparition d'une espèce hôte peut condamner l'espèce parasite.
+Exemple : les parasites sont innombrables; le ver Paragordius tricuspidatus, impressionnant parasite du grillon des bois commun Nemobius sylvestris qui pousse ce dernier à se jeter dans les cours d’eau avant de le quitter pour continuer sa propre évolution et se reproduire. Aussi la tique et les mammifères tels que le hérisson[réf. nécessaire].</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales interactions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Commensalisme</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Exemples : certains poissons séjournent dans le tube digestif d’holothuries dans lequel ils peuvent aller et venir. Certains crabes sont commensaux des moules. Certaines sociétés de coléoptères cohabitent avec les fourmis. La blatte, le moineau, le pigeon, le goéland argenté et d'autres animaux sauvages (ou revenus à la vie sauvage, tels les chats harets) vivant auprès des humains sont des commensaux de ceux-ci.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Principales interactions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Commensalisme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Phorésie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exemple : le poisson rémora, par exemple, est phoronte de la grande raie Manta.
+La phorésie fait partie du commensalisme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Similitudes et différences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mutualisme, Coopération et Symbiose
-Mutualisme : phénomène d'association bénéfique entre deux espèces vivantes. Celle-ci peut-être facultative (protocoopération), ou obligatoire, auquel cas on la dénomme symbiose.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mutualisme, Coopération et Symbiose</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutualisme : phénomène d'association bénéfique entre deux espèces vivantes. Celle-ci peut-être facultative (protocoopération), ou obligatoire, auquel cas on la dénomme symbiose.
 Coopération : association de deux êtres vivants où les deux associés retirent des bénéfices d'une relation non obligatoire. Il y a plusieurs exemples possibles de coopération où il y a un échange de service. Si on sépare les deux associés, chacun peut vivre sans problème car c'est une relation non-obligatoire. Chaque vivant de la relation peut aller chercher ailleurs pour répondre à ses besoins. Les fleurs qui donnent de la nourriture aux abeilles et les abeilles qui transportent le pollen des fleurs, le cheval qui aide le fermier et le fermier qui nourrit le cheval sont deux exemples de coopération.
 Symbiose : interaction où les deux partenaires retirent des bénéfices vitaux d'une relation obligatoire (vitale pour au moins un stade de vie).
 La coopération et la symbiose sont des mutualismes.
-Parasitisme et commensalisme
-Parasitisme : relation entre deux vivants dont l'un (plus petit) vit aux dépens, nuit et rend malade un autre vivant (généralement plus grand). Par exemple, un moustique qui pique un humain, une puce sur un chien et un ver blanc dans l'intestin d'un humain.
-Commensalisme : association de deux vivants dont l'un profite de la nourriture ou de l'abri d'un autre vivant sans lui nuire ni le déranger. Le goéland mange les restants de repas d'un humain, et cela ne dérange pas ce dernier. Un étourneau profite du nid d'un pic qui est parti depuis longtemps.
-Mutualisme et parasitisme
-Mutualisme : association facultative de deux vivants dont les deux associés retirent des bénéfices obligatoires ; autrement dit, l'association n'est pas obligatoire, mais les deux êtres en retirent des avantages nécessaires à leur survie.
-Parasitisme : l'un des vivants nuit à l'autre ; bien que le parasite ait besoin de l'hôte, cela n'est pas réciproque, bien au contraire.
-Prédation et parasitisme
-prédation : interaction directe, de court terme (instantanée ou quasi instantanée), de nature antagoniste unilatéralement détrimentielle, entre une espèce dénommée prédateur et une à plusieurs espèces dénommée(s) proie(s), duquel ou desquels l'espèce "nuisible" dépend de façon opportuniste voire obligatoire au plan trophique ;.
-Parasitisme : interaction de long terme, l'hôte subissant un préjudice, mais celui-ci n'est pas mortel à court terme alors que dans la prédation, la proie est tuée immédiatement[10].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Interaction_biologique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Similitudes et différences</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Parasitisme et commensalisme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Parasitisme : relation entre deux vivants dont l'un (plus petit) vit aux dépens, nuit et rend malade un autre vivant (généralement plus grand). Par exemple, un moustique qui pique un humain, une puce sur un chien et un ver blanc dans l'intestin d'un humain.
+Commensalisme : association de deux vivants dont l'un profite de la nourriture ou de l'abri d'un autre vivant sans lui nuire ni le déranger. Le goéland mange les restants de repas d'un humain, et cela ne dérange pas ce dernier. Un étourneau profite du nid d'un pic qui est parti depuis longtemps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Similitudes et différences</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mutualisme et parasitisme</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mutualisme : association facultative de deux vivants dont les deux associés retirent des bénéfices obligatoires ; autrement dit, l'association n'est pas obligatoire, mais les deux êtres en retirent des avantages nécessaires à leur survie.
+Parasitisme : l'un des vivants nuit à l'autre ; bien que le parasite ait besoin de l'hôte, cela n'est pas réciproque, bien au contraire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Similitudes et différences</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prédation et parasitisme</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>prédation : interaction directe, de court terme (instantanée ou quasi instantanée), de nature antagoniste unilatéralement détrimentielle, entre une espèce dénommée prédateur et une à plusieurs espèces dénommée(s) proie(s), duquel ou desquels l'espèce "nuisible" dépend de façon opportuniste voire obligatoire au plan trophique ;.
+Parasitisme : interaction de long terme, l'hôte subissant un préjudice, mais celui-ci n'est pas mortel à court terme alors que dans la prédation, la proie est tuée immédiatement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Interaction_biologique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Autres relations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Phorésie : déplacements conjoints
 Coopération
